--- a/MonthlyReportM3Y2022.xlsx
+++ b/MonthlyReportM3Y2022.xlsx
@@ -114,13 +114,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D2" t="n">
-        <v>675.0</v>
+        <v>900.0</v>
       </c>
       <c r="E2" t="n">
-        <v>45.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="3">
@@ -131,13 +131,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="D3" t="n">
-        <v>229.5</v>
+        <v>306.0</v>
       </c>
       <c r="E3" t="n">
-        <v>54.0</v>
+        <v>72.0</v>
       </c>
     </row>
   </sheetData>
